--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -465,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.963</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>5.85</v>
       </c>
       <c r="B3" t="n">
-        <v>0.999</v>
+        <v>1.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971</v>
+        <v>1.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.974</v>
+        <v>0.996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>0.996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.978</v>
+        <v>1.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.98</v>
+        <v>0.988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>5.55</v>
       </c>
       <c r="B5" t="n">
-        <v>0.967</v>
+        <v>1.02</v>
       </c>
       <c r="C5" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.977</v>
+        <v>0.974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.946</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D6" t="n">
-        <v>0.978</v>
+        <v>0.969</v>
       </c>
       <c r="E6" t="n">
-        <v>0.903</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>1.01</v>
       </c>
       <c r="C7" t="n">
-        <v>0.978</v>
+        <v>0.997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.971</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.948</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>5.1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.976</v>
+        <v>0.997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.967</v>
+        <v>0.962</v>
       </c>
       <c r="E8" t="n">
-        <v>0.927</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>4.95</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.977</v>
+        <v>0.957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.964</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.915</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>4.8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="C10" t="n">
-        <v>0.963</v>
+        <v>0.983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.953</v>
+        <v>0.952</v>
       </c>
       <c r="E10" t="n">
-        <v>0.927</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>4.65</v>
       </c>
       <c r="B11" t="n">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.961</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.978</v>
+        <v>0.945</v>
       </c>
       <c r="E11" t="n">
-        <v>0.904</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>4.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.982</v>
+        <v>0.975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.949</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.868</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>4.35</v>
       </c>
       <c r="B13" t="n">
-        <v>0.969</v>
+        <v>0.999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.961</v>
+        <v>0.975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.872</v>
+        <v>0.946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.869</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>4.2</v>
       </c>
       <c r="B14" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="C14" t="n">
-        <v>0.984</v>
+        <v>0.977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.924</v>
+        <v>0.892</v>
       </c>
       <c r="E14" t="n">
-        <v>0.86</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>4.05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.985</v>
+        <v>0.962</v>
       </c>
       <c r="C15" t="n">
         <v>0.927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.873</v>
+        <v>0.879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.834</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>3.9</v>
       </c>
       <c r="B16" t="n">
-        <v>0.961</v>
+        <v>0.963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.903</v>
+        <v>0.898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.878</v>
+        <v>0.84</v>
       </c>
       <c r="E16" t="n">
-        <v>0.781</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.944</v>
       </c>
       <c r="C17" t="n">
-        <v>0.876</v>
+        <v>0.851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="E17" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.847</v>
+        <v>0.859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.803</v>
+        <v>0.795</v>
       </c>
       <c r="D18" t="n">
-        <v>0.79</v>
+        <v>0.756</v>
       </c>
       <c r="E18" t="n">
-        <v>0.732</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>3.45</v>
       </c>
       <c r="B19" t="n">
-        <v>0.83</v>
+        <v>0.774</v>
       </c>
       <c r="C19" t="n">
-        <v>0.826</v>
+        <v>0.783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="E19" t="n">
-        <v>0.745</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>3.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.889</v>
+        <v>0.888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.82</v>
+        <v>0.801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.718</v>
+        <v>0.759</v>
       </c>
       <c r="E20" t="n">
-        <v>0.711</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>3.15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954</v>
+        <v>0.944</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="D21" t="n">
-        <v>0.739</v>
+        <v>0.778</v>
       </c>
       <c r="E21" t="n">
-        <v>0.701</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.928</v>
       </c>
       <c r="C22" t="n">
-        <v>0.856</v>
+        <v>0.857</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>2.85</v>
       </c>
       <c r="B23" t="n">
-        <v>0.981</v>
+        <v>0.973</v>
       </c>
       <c r="C23" t="n">
-        <v>0.88</v>
+        <v>0.881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.793</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.733</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>2.7</v>
       </c>
       <c r="B24" t="n">
-        <v>0.96</v>
+        <v>0.964</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.826</v>
+        <v>0.824</v>
       </c>
       <c r="E24" t="n">
-        <v>0.73</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>2.55</v>
       </c>
       <c r="B25" t="n">
-        <v>0.976</v>
+        <v>0.981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.913</v>
+        <v>0.923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.735</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>0.991</v>
+        <v>0.978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.919</v>
+        <v>0.908</v>
       </c>
       <c r="D26" t="n">
-        <v>0.832</v>
+        <v>0.846</v>
       </c>
       <c r="E26" t="n">
-        <v>0.739</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>2.25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.01</v>
+        <v>0.982</v>
       </c>
       <c r="C27" t="n">
-        <v>0.916</v>
+        <v>0.95</v>
       </c>
       <c r="D27" t="n">
-        <v>0.838</v>
+        <v>0.819</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>2.1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
       <c r="C28" t="n">
-        <v>0.894</v>
+        <v>0.903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.839</v>
+        <v>0.836</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>1.95</v>
       </c>
       <c r="B29" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.843</v>
+        <v>0.824</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>1.8</v>
       </c>
       <c r="B30" t="n">
-        <v>0.974</v>
+        <v>0.971</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.798</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>1.65</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.879</v>
+        <v>0.91</v>
       </c>
       <c r="D31" t="n">
-        <v>0.804</v>
+        <v>0.798</v>
       </c>
       <c r="E31" t="n">
-        <v>0.649</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>1.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.913</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="E32" t="n">
-        <v>0.609</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>1.35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.968</v>
+        <v>0.948</v>
       </c>
       <c r="C33" t="n">
-        <v>0.909</v>
+        <v>0.89</v>
       </c>
       <c r="D33" t="n">
-        <v>0.715</v>
+        <v>0.75</v>
       </c>
       <c r="E33" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>1.2</v>
       </c>
       <c r="B34" t="n">
-        <v>0.991</v>
+        <v>0.965</v>
       </c>
       <c r="C34" t="n">
-        <v>0.839</v>
+        <v>0.849</v>
       </c>
       <c r="D34" t="n">
-        <v>0.723</v>
+        <v>0.711</v>
       </c>
       <c r="E34" t="n">
-        <v>0.527</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="35">
@@ -1026,13 +1026,13 @@
         <v>1.05</v>
       </c>
       <c r="B35" t="n">
-        <v>0.954</v>
+        <v>0.945</v>
       </c>
       <c r="C35" t="n">
-        <v>0.823</v>
+        <v>0.832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
       <c r="E35" t="n">
         <v>0.46</v>
@@ -1043,16 +1043,16 @@
         <v>0.9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="C36" t="n">
-        <v>0.778</v>
+        <v>0.803</v>
       </c>
       <c r="D36" t="n">
-        <v>0.613</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>0.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.928</v>
+        <v>0.898</v>
       </c>
       <c r="C37" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="D37" t="n">
-        <v>0.512</v>
+        <v>0.507</v>
       </c>
       <c r="E37" t="n">
-        <v>0.305</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>0.6</v>
       </c>
       <c r="B38" t="n">
-        <v>0.878</v>
+        <v>0.887</v>
       </c>
       <c r="C38" t="n">
-        <v>0.661</v>
+        <v>0.652</v>
       </c>
       <c r="D38" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="E38" t="n">
-        <v>0.214</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>0.782</v>
+        <v>0.821</v>
       </c>
       <c r="C39" t="n">
-        <v>0.513</v>
+        <v>0.53</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27</v>
+        <v>0.304</v>
       </c>
       <c r="E39" t="n">
-        <v>0.197</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>0.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.645</v>
+        <v>0.648</v>
       </c>
       <c r="C40" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="D40" t="n">
-        <v>0.163</v>
+        <v>0.158</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0598</v>
+        <v>0.0697</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>0.15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301</v>
+        <v>0.327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.13</v>
+        <v>0.109</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0603</v>
+        <v>0.0581</v>
       </c>
       <c r="E41" t="n">
-        <v>0.018</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>-1.42e-14</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01</v>
+        <v>0.0126</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0064</v>
+        <v>0.0195</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0364</v>
+        <v>-0.0097</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>-0.15</v>
       </c>
       <c r="B43" t="n">
-        <v>0.334</v>
+        <v>0.349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123</v>
+        <v>0.099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0434</v>
+        <v>0.0337</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00767</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>-0.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.71</v>
+        <v>0.699</v>
       </c>
       <c r="C44" t="n">
-        <v>0.344</v>
+        <v>0.337</v>
       </c>
       <c r="D44" t="n">
-        <v>0.198</v>
+        <v>0.166</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0383</v>
+        <v>0.0541</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>-0.45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.849</v>
+        <v>0.824</v>
       </c>
       <c r="C45" t="n">
-        <v>0.533</v>
+        <v>0.555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.29</v>
+        <v>0.282</v>
       </c>
       <c r="E45" t="n">
-        <v>0.173</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
-        <v>0.917</v>
+        <v>0.903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.671</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D46" t="n">
         <v>0.428</v>
       </c>
       <c r="E46" t="n">
-        <v>0.231</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>-0.75</v>
       </c>
       <c r="B47" t="n">
-        <v>0.955</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.788</v>
+        <v>0.783</v>
       </c>
       <c r="D47" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="E47" t="n">
-        <v>0.378</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>-0.9</v>
       </c>
       <c r="B48" t="n">
-        <v>0.944</v>
+        <v>0.924</v>
       </c>
       <c r="C48" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.642</v>
+        <v>0.639</v>
       </c>
       <c r="E48" t="n">
-        <v>0.46</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>-1.05</v>
       </c>
       <c r="B49" t="n">
-        <v>0.96</v>
+        <v>0.951</v>
       </c>
       <c r="C49" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="D49" t="n">
-        <v>0.721</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>-1.2</v>
       </c>
       <c r="B50" t="n">
-        <v>0.972</v>
+        <v>0.983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.896</v>
+        <v>0.9</v>
       </c>
       <c r="D50" t="n">
-        <v>0.754</v>
+        <v>0.73</v>
       </c>
       <c r="E50" t="n">
-        <v>0.579</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>-1.35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.978</v>
+        <v>0.973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.911</v>
+        <v>0.923</v>
       </c>
       <c r="D51" t="n">
-        <v>0.786</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.631</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>-1.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D52" t="n">
         <v>0.823</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>-1.65</v>
       </c>
       <c r="B53" t="n">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="C53" t="n">
-        <v>0.906</v>
+        <v>0.953</v>
       </c>
       <c r="D53" t="n">
-        <v>0.851</v>
+        <v>0.843</v>
       </c>
       <c r="E53" t="n">
-        <v>0.769</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>-1.8</v>
       </c>
       <c r="B54" t="n">
-        <v>0.985</v>
+        <v>0.963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.958</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.861</v>
+        <v>0.857</v>
       </c>
       <c r="E54" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>-1.95</v>
       </c>
       <c r="B55" t="n">
-        <v>1.02</v>
+        <v>0.996</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.887</v>
+        <v>0.905</v>
       </c>
       <c r="E55" t="n">
-        <v>0.791</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>-2.1</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02</v>
+        <v>0.971</v>
       </c>
       <c r="C56" t="n">
-        <v>0.955</v>
+        <v>0.98</v>
       </c>
       <c r="D56" t="n">
-        <v>0.901</v>
+        <v>0.895</v>
       </c>
       <c r="E56" t="n">
-        <v>0.837</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>-2.25</v>
       </c>
       <c r="B57" t="n">
-        <v>0.991</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="D57" t="n">
-        <v>0.922</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>-2.4</v>
       </c>
       <c r="B58" t="n">
-        <v>0.98</v>
+        <v>0.959</v>
       </c>
       <c r="C58" t="n">
-        <v>0.961</v>
+        <v>0.968</v>
       </c>
       <c r="D58" t="n">
-        <v>0.919</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.846</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>-2.55</v>
       </c>
       <c r="B59" t="n">
-        <v>0.987</v>
+        <v>0.999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.988</v>
+        <v>0.963</v>
       </c>
       <c r="D59" t="n">
-        <v>0.903</v>
+        <v>0.917</v>
       </c>
       <c r="E59" t="n">
-        <v>0.866</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>-2.7</v>
       </c>
       <c r="B60" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C60" t="n">
-        <v>1.01</v>
+        <v>0.952</v>
       </c>
       <c r="D60" t="n">
-        <v>0.928</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.89</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>-2.85</v>
       </c>
       <c r="B61" t="n">
-        <v>1.04</v>
+        <v>0.984</v>
       </c>
       <c r="C61" t="n">
-        <v>0.98</v>
+        <v>0.968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.945</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.864</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>-3</v>
       </c>
       <c r="B62" t="n">
-        <v>1.02</v>
+        <v>0.994</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="D62" t="n">
-        <v>0.962</v>
+        <v>0.966</v>
       </c>
       <c r="E62" t="n">
-        <v>0.908</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>-3.15</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="C63" t="n">
-        <v>0.977</v>
+        <v>0.982</v>
       </c>
       <c r="D63" t="n">
-        <v>0.96</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.889</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>-3.3</v>
       </c>
       <c r="B64" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C64" t="n">
-        <v>0.981</v>
+        <v>1.01</v>
       </c>
       <c r="D64" t="n">
-        <v>0.998</v>
+        <v>0.964</v>
       </c>
       <c r="E64" t="n">
-        <v>0.909</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>-3.45</v>
       </c>
       <c r="B65" t="n">
-        <v>0.987</v>
+        <v>1.01</v>
       </c>
       <c r="C65" t="n">
-        <v>1.02</v>
+        <v>0.995</v>
       </c>
       <c r="D65" t="n">
-        <v>0.996</v>
+        <v>0.971</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>-3.6</v>
       </c>
       <c r="B66" t="n">
-        <v>0.997</v>
+        <v>1.01</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02</v>
+        <v>0.976</v>
       </c>
       <c r="D66" t="n">
-        <v>0.953</v>
+        <v>0.96</v>
       </c>
       <c r="E66" t="n">
-        <v>0.923</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>-3.75</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02</v>
+        <v>0.978</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.957</v>
+        <v>0.979</v>
       </c>
       <c r="E67" t="n">
-        <v>0.925</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>-3.9</v>
       </c>
       <c r="B68" t="n">
-        <v>0.993</v>
+        <v>0.981</v>
       </c>
       <c r="C68" t="n">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="D68" t="n">
-        <v>0.957</v>
+        <v>1.01</v>
       </c>
       <c r="E68" t="n">
-        <v>0.947</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>-4.05</v>
       </c>
       <c r="B69" t="n">
-        <v>1.03</v>
+        <v>0.977</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.964</v>
+        <v>1.01</v>
       </c>
       <c r="E69" t="n">
-        <v>0.914</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>-4.2</v>
       </c>
       <c r="B70" t="n">
-        <v>0.979</v>
+        <v>0.976</v>
       </c>
       <c r="C70" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957</v>
+        <v>0.948</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>-4.35</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="C71" t="n">
-        <v>1.03</v>
+        <v>0.985</v>
       </c>
       <c r="D71" t="n">
-        <v>0.997</v>
+        <v>0.971</v>
       </c>
       <c r="E71" t="n">
-        <v>0.975</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>-4.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="C72" t="n">
-        <v>0.988</v>
+        <v>1.01</v>
       </c>
       <c r="D72" t="n">
-        <v>0.984</v>
+        <v>0.992</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="73">
@@ -1675,13 +1675,13 @@
         <v>0.991</v>
       </c>
       <c r="C73" t="n">
-        <v>1.01</v>
+        <v>0.991</v>
       </c>
       <c r="D73" t="n">
-        <v>0.993</v>
+        <v>0.991</v>
       </c>
       <c r="E73" t="n">
-        <v>0.949</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>-4.8</v>
       </c>
       <c r="B74" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D74" t="n">
         <v>1.02</v>
       </c>
-      <c r="C74" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.994</v>
-      </c>
       <c r="E74" t="n">
-        <v>1.01</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>-4.95</v>
       </c>
       <c r="B75" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.993</v>
+        <v>0.965</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.963</v>
       </c>
       <c r="E75" t="n">
-        <v>0.966</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>-5.1</v>
       </c>
       <c r="B76" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.981</v>
+        <v>0.998</v>
       </c>
       <c r="E76" t="n">
-        <v>0.974</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>-5.25</v>
       </c>
       <c r="B77" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C77" t="n">
         <v>1.02</v>
       </c>
-      <c r="C77" t="n">
-        <v>1.01</v>
-      </c>
       <c r="D77" t="n">
-        <v>0.969</v>
+        <v>0.973</v>
       </c>
       <c r="E77" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>-5.4</v>
       </c>
       <c r="B78" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E78" t="n">
-        <v>0.976</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>-5.55</v>
       </c>
       <c r="B79" t="n">
-        <v>0.986</v>
+        <v>1.01</v>
       </c>
       <c r="C79" t="n">
-        <v>0.989</v>
+        <v>1.01</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02</v>
+        <v>0.984</v>
       </c>
       <c r="E79" t="n">
-        <v>0.982</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>-5.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="C80" t="n">
-        <v>1.02</v>
+        <v>0.979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
       <c r="E80" t="n">
-        <v>0.947</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>-5.85</v>
       </c>
       <c r="B81" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="E81" t="n">
-        <v>0.953</v>
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>
